--- a/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200219.xlsx
+++ b/data/unchecked/manual_collect/china/chongqing/chongqingCaseStatistics_20200219.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9593" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9635" uniqueCount="3305">
   <si>
     <t>统计级别</t>
   </si>
@@ -10327,6 +10327,12 @@
   </si>
   <si>
     <t>http://wsjkw.cq.gov.cn/tzgg/20200220/255220.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2月19日0—24时，重庆市报告新冠肺炎新增确诊病例5例，新增治愈出院病例20例。
+新增确诊病例中，万州区3例、奉节县2例；新增治愈出院病例中，万州区5例、江北区1例、南岸区2例、渝北区1例、永川区2例、綦江区1例、大足区1例、潼南区1例、开州区1例、垫江县2例、忠县1例、奉节县2例。
+截至2月19日24时，重庆市现有在院确诊病例281例（其中重型病例32例、危重型病例13例），累计死亡病例5例，累计治愈出院病例274例，累计报告确诊病例560例。累计追踪到密切接触者22700人，已解除医学观察20385人，尚有2315人正在接受医学观察。具体情况如下：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10796,7 +10802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10806,8 +10812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O1" activeCellId="3" sqref="I1:I1048576 K1:K1048576 M1:M1048576 O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10976,7 +10982,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.2">
+    <row r="2" spans="1:40" ht="78">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -11023,7 +11029,9 @@
       <c r="T2" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U2" s="24"/>
+      <c r="U2" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V2" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11046,7 +11054,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="16.2">
+    <row r="3" spans="1:40" ht="78">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -11095,7 +11103,9 @@
       <c r="T3" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U3" s="24"/>
+      <c r="U3" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V3" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16.2">
+    <row r="4" spans="1:40" ht="78">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11158,7 +11168,9 @@
       <c r="T4" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U4" s="24"/>
+      <c r="U4" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V4" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11178,7 +11190,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16.2">
+    <row r="5" spans="1:40" ht="78">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -11221,7 +11233,9 @@
       <c r="T5" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U5" s="24"/>
+      <c r="U5" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V5" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11241,7 +11255,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16.2">
+    <row r="6" spans="1:40" ht="78">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11284,7 +11298,9 @@
       <c r="T6" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U6" s="24"/>
+      <c r="U6" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V6" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11304,7 +11320,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16.2">
+    <row r="7" spans="1:40" ht="78">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -11347,7 +11363,9 @@
       <c r="T7" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U7" s="24"/>
+      <c r="U7" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V7" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16.2">
+    <row r="8" spans="1:40" ht="78">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11412,7 +11430,9 @@
       <c r="T8" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U8" s="24"/>
+      <c r="U8" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V8" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11432,7 +11452,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16.2">
+    <row r="9" spans="1:40" ht="78">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -11475,7 +11495,9 @@
       <c r="T9" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U9" s="24"/>
+      <c r="U9" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V9" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11495,7 +11517,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16.2">
+    <row r="10" spans="1:40" ht="78">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11540,7 +11562,9 @@
       <c r="T10" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U10" s="24"/>
+      <c r="U10" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V10" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11560,7 +11584,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16.2">
+    <row r="11" spans="1:40" ht="78">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -11605,7 +11629,9 @@
       <c r="T11" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U11" s="24"/>
+      <c r="U11" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V11" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11625,7 +11651,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16.2">
+    <row r="12" spans="1:40" ht="78">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11664,7 +11690,9 @@
       <c r="T12" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U12" s="24"/>
+      <c r="U12" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V12" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11684,7 +11712,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16.2">
+    <row r="13" spans="1:40" ht="78">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -11729,7 +11757,9 @@
       <c r="T13" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U13" s="24"/>
+      <c r="U13" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V13" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11749,7 +11779,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16.2">
+    <row r="14" spans="1:40" ht="78">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11792,7 +11822,9 @@
       <c r="T14" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U14" s="24"/>
+      <c r="U14" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V14" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11812,7 +11844,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16.2">
+    <row r="15" spans="1:40" ht="78">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -11855,7 +11887,9 @@
       <c r="T15" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U15" s="24"/>
+      <c r="U15" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V15" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11875,7 +11909,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.2">
+    <row r="16" spans="1:40" ht="78">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -11918,7 +11952,9 @@
       <c r="T16" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U16" s="24"/>
+      <c r="U16" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V16" s="25" t="s">
         <v>3303</v>
       </c>
@@ -11938,7 +11974,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.2">
+    <row r="17" spans="1:29" ht="78">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -11981,7 +12017,9 @@
       <c r="T17" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U17" s="24"/>
+      <c r="U17" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V17" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12001,7 +12039,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16.2">
+    <row r="18" spans="1:29" ht="78">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -12046,7 +12084,9 @@
       <c r="T18" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U18" s="24"/>
+      <c r="U18" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V18" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12066,7 +12106,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16.2">
+    <row r="19" spans="1:29" ht="78">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -12105,7 +12145,9 @@
       <c r="T19" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U19" s="24"/>
+      <c r="U19" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V19" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12125,7 +12167,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.2">
+    <row r="20" spans="1:29" ht="78">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -12170,7 +12212,9 @@
       <c r="T20" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U20" s="24"/>
+      <c r="U20" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V20" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12190,7 +12234,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.2">
+    <row r="21" spans="1:29" ht="78">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -12235,7 +12279,9 @@
       <c r="T21" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U21" s="24"/>
+      <c r="U21" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V21" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12255,7 +12301,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2">
+    <row r="22" spans="1:29" ht="78">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -12298,7 +12344,9 @@
       <c r="T22" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U22" s="24"/>
+      <c r="U22" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V22" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12318,7 +12366,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16.2">
+    <row r="23" spans="1:29" ht="78">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -12361,7 +12409,9 @@
       <c r="T23" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U23" s="24"/>
+      <c r="U23" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V23" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12381,7 +12431,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16.2">
+    <row r="24" spans="1:29" ht="78">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -12426,7 +12476,9 @@
       <c r="T24" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U24" s="24"/>
+      <c r="U24" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V24" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12446,7 +12498,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16.2">
+    <row r="25" spans="1:29" ht="78">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -12489,7 +12541,9 @@
       <c r="T25" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V25" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12509,7 +12563,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16.2">
+    <row r="26" spans="1:29" ht="78">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -12556,7 +12610,9 @@
       <c r="T26" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V26" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12576,7 +12632,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16.2">
+    <row r="27" spans="1:29" ht="78">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -12619,7 +12675,9 @@
       <c r="T27" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U27" s="24"/>
+      <c r="U27" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V27" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12639,7 +12697,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16.2">
+    <row r="28" spans="1:29" ht="78">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -12682,7 +12740,9 @@
       <c r="T28" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U28" s="24"/>
+      <c r="U28" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V28" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12702,7 +12762,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.2">
+    <row r="29" spans="1:29" ht="78">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -12745,7 +12805,9 @@
       <c r="T29" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U29" s="24"/>
+      <c r="U29" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V29" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12765,7 +12827,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.2">
+    <row r="30" spans="1:29" ht="78">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -12808,7 +12870,9 @@
       <c r="T30" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U30" s="24"/>
+      <c r="U30" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V30" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12828,7 +12892,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16.2">
+    <row r="31" spans="1:29" ht="78">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -12873,7 +12937,9 @@
       <c r="T31" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U31" s="24"/>
+      <c r="U31" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V31" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12893,7 +12959,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2">
+    <row r="32" spans="1:29" ht="78">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -12938,7 +13004,9 @@
       <c r="T32" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U32" s="24"/>
+      <c r="U32" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V32" s="25" t="s">
         <v>3303</v>
       </c>
@@ -12958,7 +13026,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.2">
+    <row r="33" spans="1:29" ht="78">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -13001,7 +13069,9 @@
       <c r="T33" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U33" s="24"/>
+      <c r="U33" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V33" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13021,7 +13091,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="16.2">
+    <row r="34" spans="1:29" ht="78">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -13068,7 +13138,9 @@
       <c r="T34" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U34" s="24"/>
+      <c r="U34" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V34" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13088,7 +13160,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16.2">
+    <row r="35" spans="1:29" ht="78">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -13131,7 +13203,9 @@
       <c r="T35" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U35" s="24"/>
+      <c r="U35" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V35" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13151,7 +13225,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16.2">
+    <row r="36" spans="1:29" ht="78">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -13194,7 +13268,9 @@
       <c r="T36" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U36" s="24"/>
+      <c r="U36" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V36" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13214,7 +13290,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16.2">
+    <row r="37" spans="1:29" ht="78">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -13257,7 +13333,9 @@
       <c r="T37" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U37" s="24"/>
+      <c r="U37" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V37" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13277,7 +13355,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16.2">
+    <row r="38" spans="1:29" ht="78">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -13320,7 +13398,9 @@
       <c r="T38" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U38" s="24"/>
+      <c r="U38" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V38" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13340,7 +13420,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.2">
+    <row r="39" spans="1:29" ht="78">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -13381,7 +13461,9 @@
       <c r="T39" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U39" s="24"/>
+      <c r="U39" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V39" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13401,7 +13483,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16.2">
+    <row r="40" spans="1:29" ht="78">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -13442,7 +13524,9 @@
       <c r="T40" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U40" s="24"/>
+      <c r="U40" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V40" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13462,7 +13546,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16.2">
+    <row r="41" spans="1:29" ht="78">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -13505,7 +13589,9 @@
       <c r="T41" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U41" s="24"/>
+      <c r="U41" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V41" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13525,7 +13611,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.2">
+    <row r="42" spans="1:29" ht="78">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -13568,7 +13654,9 @@
       <c r="T42" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U42" s="24"/>
+      <c r="U42" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V42" s="25" t="s">
         <v>3303</v>
       </c>
@@ -13588,7 +13676,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16.2">
+    <row r="43" spans="1:29" ht="78">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -13629,7 +13717,9 @@
       <c r="T43" s="19">
         <v>43881.350694444445</v>
       </c>
-      <c r="U43" s="24"/>
+      <c r="U43" s="24" t="s">
+        <v>3304</v>
+      </c>
       <c r="V43" s="25" t="s">
         <v>3303</v>
       </c>
